--- a/biology/Médecine/Bugadière/Bugadière.xlsx
+++ b/biology/Médecine/Bugadière/Bugadière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bugadi%C3%A8re</t>
+          <t>Bugadière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bugadière vient du provençal (bugada, lessive) et désigne une structure maçonnée qui ressemble à un placard, réalisée en pierre ou en torchis et destinée à accueillir le linge sale et la cendre du foyer par-dessus.
 Lorsque la bugadière était suffisamment garnie, on prenait le mélange de linge et de cendres pour les mettre dans la lessiveuse avec de l'eau. Sans même la nécessité de le battre, il suffisait alors de faire bouillir le tout pour obtenir un linge d'une très grande propreté, nettoyé en profondeur par le soluté des matières minérales de la cendre. Après rinçage, le linge était exposé aux rayons du soleil de Provence qui, au-delà du séchage, agissait encore pour accroitre la blancheur de la toile.
